--- a/doc/版本问题/02.04版本问题汇总.xlsx
+++ b/doc/版本问题/02.04版本问题汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>类</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Q&amp;A</t>
+  </si>
+  <si>
+    <t>死亡倒计时</t>
   </si>
 </sst>
 </file>
@@ -188,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -209,10 +212,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,21 +235,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -247,6 +242,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -255,6 +265,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -262,91 +287,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,181 +376,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,6 +561,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,15 +584,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,26 +603,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,17 +619,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,6 +637,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -666,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -951,6 +954,49 @@
         <a:xfrm>
           <a:off x="13820775" y="5038725"/>
           <a:ext cx="4133850" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13792200" y="8572500"/>
+          <a:ext cx="6086475" cy="1933575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1255,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="F1:I39"/>
+  <dimension ref="F1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I27" sqref="H27:I28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1560,6 +1606,11 @@
       </c>
       <c r="I39" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/doc/版本问题/02.04版本问题汇总.xlsx
+++ b/doc/版本问题/02.04版本问题汇总.xlsx
@@ -108,7 +108,7 @@
     <t>技能list默认显示该英雄所有技能</t>
   </si>
   <si>
-    <t>排序：当前已结算并可升级的技能-已结算不可升级的技能-未解锁的技能；默认显示2个技能</t>
+    <t>排序：当前已解锁并可升级的技能-已解锁不可升级的技能-未解锁的技能；默认显示2个技能</t>
   </si>
   <si>
     <t>英雄死亡时所属技能列表为收起</t>
@@ -159,7 +159,7 @@
     <t>用无底的</t>
   </si>
   <si>
-    <t>摇钱树页面数据为及时随战役刷新</t>
+    <t>摇钱树页面数据未及时随战役刷新</t>
   </si>
   <si>
     <t>打开商城-商店后点击金币增加icon无效</t>
@@ -191,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -211,6 +211,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -226,6 +263,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -234,6 +286,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -242,6 +301,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -251,105 +318,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,13 +370,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,43 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,121 +520,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,30 +561,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -599,26 +575,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,7 +598,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,6 +617,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -669,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,8 +1303,8 @@
   <sheetPr/>
   <dimension ref="F1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
